--- a/biology/Mycologie/Bolet_chrysenteron/Bolet_chrysenteron.xlsx
+++ b/biology/Mycologie/Bolet_chrysenteron/Bolet_chrysenteron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xerocomellus chrysenteron
 Xerocomellus chrysenteron, le Bolet à chair jaune, anciennement Boletus chrysenteron, est une espèce de champignon (Fungi) basidiomycète du genre Xerocomellus dans la famille des Boletaceae. C'est une espèce très courante que l’on rencontre dans de nombreux bois. Comestible moyen, il est caractérisé par la chair de son pied en partie rouge à la coupe. Sa chair ne bleuit pas ou alors très peu.
@@ -512,62 +524,55 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus chrysenteron (Bull.) Šutara, 2008[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus chrysenteron Bull., 1791[1].
-Synonymes
-Xerocomellus chrysenteron a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus chrysenteron (Bull.) Šutara, 2008. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus chrysenteron Bull., 1791.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Xerocomellus chrysenteron a pour synonymes :
 Boletus chrysenteron Bull., 1791
 Boletus cupreus Schaeff., 1774
 Suillus chrysenteron var. chrysenteron , 1898
 Suillus chrysenteron (Bull.) Kuntze, 1898
 Versipellis chrysenteron (Bull.) Quél., 1886
-Xerocomus chrysenteron (Bull.) Quél., 1888
-Phylogénie
-Boletus chrysenteron a été décrit pour la première fois par Pierre Bulliard en 1791[2]. En 1888, Lucien Quélet le renomme Xerocomus chrysenteron[3]. En 2008, Josef Šutara lui donne son nom actuel valide, Xerocomellus chrysenteron[4].
-Étymologie
-L'épithète spécifique chrysenteron, venant du Grec, signifiant "à intérieur doré", fait réfèrence à la chair jaunâtre de ce champignon.
-Noms vulgaires et vernaculaires
-Bolet à chair jaune, Bolet chrysentéron.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_chrysenteron</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_chrysenteron</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Xerocomellus chrysenteron, le Bolet à chair jaune, sont les suivantes :
-Son chapeau mesure 3 à 8 cm de diamètre, il est convexe puis largement convexe à subétalé, sec, subtomenteux, vite craquelé-aréolé, brun-gris, marron, marron-gris, brun olive ou brun-vert foncé. Il est rose-rouge dans les craquelures de la cuticule.
-L'hyménophore présente des tubes jaunes devenant jaune olivâtres à olivâtres à maturité. Ils sont anguleux, irréguliers et plutôt larges à maturité, 1 à 2 par mm ou jusqu'à 1 à 2 mm de largeur. La couche de tubes peut être déprimée près du pied. Les pores sont concolores. Ils bleuissent faiblement à la pression ou à la coupe[5]. La sporée est brun olive.
-Son stipe mesure 4 à 8 cm x 0,5 à 1,5 cm. Il est grêle, jaune à fines côtes, tacheté ou ligné de rouge grenat, de forme subégal à atténué vers la base, plein, sec, subvelouté ou strié, jaunâtre, rouge pourpré vers la base, avec mycélium basal blanc.
-La chair est à demi molle et, à la coupe, de couleur jaunâtre dans le pied et blanchâtre dans le chapeau. Elle devient progressivement rouge betterave en commençant par la moitié du stipe et se dirigant vers la base pour subitement devenir brunâtre orangée tout au bout du pied. Elle bleuit très légèrement au niveau du milieu ou du haut du pied quelques minutes après avoir été coupée. L'odeur n'est pas distinctive et la saveur est douce.
-Caractéristiques microscopiques
-Ses spores sont oblongues à naviculaires, lisses, parfois avec petit pore germinatif et tronquées à l'apex, ocracées, jaune-brun pâle à brun pâle, mesurant 10 à 14,5 µm x 4,5 à 6,5 µm.
-</t>
+Xerocomus chrysenteron (Bull.) Quél., 1888</t>
         </is>
       </c>
     </row>
@@ -592,14 +597,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus chrysenteron a été décrit pour la première fois par Pierre Bulliard en 1791. En 1888, Lucien Quélet le renomme Xerocomus chrysenteron. En 2008, Josef Šutara lui donne son nom actuel valide, Xerocomellus chrysenteron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique chrysenteron, venant du Grec, signifiant "à intérieur doré", fait réfèrence à la chair jaunâtre de ce champignon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet à chair jaune, Bolet chrysentéron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Xerocomellus chrysenteron, le Bolet à chair jaune, sont les suivantes :
+Son chapeau mesure 3 à 8 cm de diamètre, il est convexe puis largement convexe à subétalé, sec, subtomenteux, vite craquelé-aréolé, brun-gris, marron, marron-gris, brun olive ou brun-vert foncé. Il est rose-rouge dans les craquelures de la cuticule.
+L'hyménophore présente des tubes jaunes devenant jaune olivâtres à olivâtres à maturité. Ils sont anguleux, irréguliers et plutôt larges à maturité, 1 à 2 par mm ou jusqu'à 1 à 2 mm de largeur. La couche de tubes peut être déprimée près du pied. Les pores sont concolores. Ils bleuissent faiblement à la pression ou à la coupe. La sporée est brun olive.
+Son stipe mesure 4 à 8 cm x 0,5 à 1,5 cm. Il est grêle, jaune à fines côtes, tacheté ou ligné de rouge grenat, de forme subégal à atténué vers la base, plein, sec, subvelouté ou strié, jaunâtre, rouge pourpré vers la base, avec mycélium basal blanc.
+La chair est à demi molle et, à la coupe, de couleur jaunâtre dans le pied et blanchâtre dans le chapeau. Elle devient progressivement rouge betterave en commençant par la moitié du stipe et se dirigant vers la base pour subitement devenir brunâtre orangée tout au bout du pied. Elle bleuit très légèrement au niveau du milieu ou du haut du pied quelques minutes après avoir été coupée. L'odeur n'est pas distinctive et la saveur est douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont oblongues à naviculaires, lisses, parfois avec petit pore germinatif et tronquées à l'apex, ocracées, jaune-brun pâle à brun pâle, mesurant 10 à 14,5 µm x 4,5 à 6,5 µm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_chrysenteron</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Xerocomellus chrysenteron f. aereomaculatus, forme à craquelures bronze, diffère du type par une chair jaune clair dans les craquelures du chapeau, une marginelle débordante blanchâtre à jaune paille ; une chair jaune vif dans le bas du stipe ; un stipe et une chair dont la couleur rouge est fortement réduite jusqu'à manquer, et un bleuissement souvent nul[6].
-Xerocomellus chrysenteron var. crassipes, forme à pied ventru, diffère du type par des tubes plutôt longs, écartés du stipe, et un stipe (pied) ventru, clavé ou subcylindracé[6].
-Xerocomus chrysenteron f. gracilis, forme gracile bleuissante, au chapeau très petit (1,5 à 4 cm de diamètre[7]), brun olive clair avec des parties roses à rouge cinabre ; marge souvent fendillée-crevassée de blanc jaunâtre, parfois rose dans les parties rongées. Pores nettement bleuissant. Spores plus petites que chez le type. Chair fortement bleuissante. Sous Quercus petraea, printemps à mi-juillet[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Xerocomellus chrysenteron f. aereomaculatus, forme à craquelures bronze, diffère du type par une chair jaune clair dans les craquelures du chapeau, une marginelle débordante blanchâtre à jaune paille ; une chair jaune vif dans le bas du stipe ; un stipe et une chair dont la couleur rouge est fortement réduite jusqu'à manquer, et un bleuissement souvent nul.
+Xerocomellus chrysenteron var. crassipes, forme à pied ventru, diffère du type par des tubes plutôt longs, écartés du stipe, et un stipe (pied) ventru, clavé ou subcylindracé.
+Xerocomus chrysenteron f. gracilis, forme gracile bleuissante, au chapeau très petit (1,5 à 4 cm de diamètre), brun olive clair avec des parties roses à rouge cinabre ; marge souvent fendillée-crevassée de blanc jaunâtre, parfois rose dans les parties rongées. Pores nettement bleuissant. Spores plus petites que chez le type. Chair fortement bleuissante. Sous Quercus petraea, printemps à mi-juillet.
 Xerocomellus chrysenteron var. sterilis</t>
         </is>
       </c>
